--- a/biology/Botanique/Ampelopsis_brevipedunculata/Ampelopsis_brevipedunculata.xlsx
+++ b/biology/Botanique/Ampelopsis_brevipedunculata/Ampelopsis_brevipedunculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La vigne vierge à fruits bleus[2] (Ampelopsis brevipedunculata) est une plante grimpante ligneuse de la famille des Vitaceae, originaire de Chine du Nord-Est et des régions environnantes. Elle est cultivée comme plante ornementale pour ses raisins aux couleurs remarquables allant du mauve au bleu turquoise, raison pour laquelle elle est dénommée en anglais “porcelain berry”, en français « baie de porcelaine ». Son nom chinois est 东北蛇葡萄 ("dongbei sheputao"), morphologiquement « vigne serpent du nord-est ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vigne vierge à fruits bleus (Ampelopsis brevipedunculata) est une plante grimpante ligneuse de la famille des Vitaceae, originaire de Chine du Nord-Est et des régions environnantes. Elle est cultivée comme plante ornementale pour ses raisins aux couleurs remarquables allant du mauve au bleu turquoise, raison pour laquelle elle est dénommée en anglais “porcelain berry”, en français « baie de porcelaine ». Son nom chinois est 东北蛇葡萄 ("dongbei sheputao"), morphologiquement « vigne serpent du nord-est ».
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS :
 (fr + en) Référence ITIS : Ampelopsis heterophylla (Thunb.) Sieb. &amp; Zucc. Non valide
 (fr + en) Référence ITIS : Ampelopsis brevipedunculata var. maximowiczii (Regel) Rehder Non valide</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description[4]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette vigne vierge est une liane vigoureuse, caduque, qui s’accroche aux supports par des vrilles non adhésives (comme les vraies vignes (Vitis) et différemment des vignes vierges du genre Parthenocissus qui possèdent des pelotes adhésives). Les vrilles sont opposées aux feuilles et comportent à 2 ou 3 branches.
 Les feuilles alternes, simples, possèdent 3 à 5 lobes plus ou moins profonds et des marges crénelées (avec un petit apicule). L’apex est aigu et la base cordée.
@@ -581,7 +597,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette vigne vierge pousse dans les forêts où elle s’accroche aux arbres et arbustes.
 On la trouve dans la Chine du Nord-Est (Heilongjiang, Jilin, Liaoning), en Corée, Sibérie et au Japon.
@@ -614,10 +632,12 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des études phytochimiques ont montré que les racines d’Ampelopsis brevipedunculata contenaient des polyphénols pharmacologiquement très intéressants : (-)-épicatéchine, pallidol, picéide, resvératroloside ainsi que des oligostilbènes nommés "ampélopsines" A, B, C, D, E, H[5],[6]. Il semblerait que la (+)-ε-viniférine soit un précurseur important de ces ampélopsines.
-Ces études ont montré que l’ampélopsine E et la cis-ampélopsine E avaient des activités antihépatotoxiques notables[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des études phytochimiques ont montré que les racines d’Ampelopsis brevipedunculata contenaient des polyphénols pharmacologiquement très intéressants : (-)-épicatéchine, pallidol, picéide, resvératroloside ainsi que des oligostilbènes nommés "ampélopsines" A, B, C, D, E, H,. Il semblerait que la (+)-ε-viniférine soit un précurseur important de ces ampélopsines.
+Ces études ont montré que l’ampélopsine E et la cis-ampélopsine E avaient des activités antihépatotoxiques notables.
 </t>
         </is>
       </c>
@@ -646,11 +666,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ampelopsis brevipedunculata est une liane vigoureuse et très décorative plantée dans les jardins des zones tempérées. Elle sert à garnir les murs et les tonnelles.
 La variété A. brevipedunculata ‘Elegans’ est moins vigoureuse que l’espèce type. Elle a des feuilles plus petites, marbrées de blanc et de rose et elle est plus sensible au gel.
-En Chine, la tige feuillée et les racines sont utilisées comme matière médicale. Le fruit serait aussi vinifiable[7].
+En Chine, la tige feuillée et les racines sont utilisées comme matière médicale. Le fruit serait aussi vinifiable.
 </t>
         </is>
       </c>
